--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema4g</t>
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.172848</v>
+        <v>0.2694113333333333</v>
       </c>
       <c r="H2">
-        <v>0.518544</v>
+        <v>0.808234</v>
       </c>
       <c r="I2">
-        <v>0.04011888417844697</v>
+        <v>0.03395575510082675</v>
       </c>
       <c r="J2">
-        <v>0.04011888417844696</v>
+        <v>0.03395575510082675</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N2">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P2">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q2">
-        <v>1.51718225048</v>
+        <v>2.915481711042445</v>
       </c>
       <c r="R2">
-        <v>13.65464025432</v>
+        <v>26.239335399382</v>
       </c>
       <c r="S2">
-        <v>0.002990789828706947</v>
+        <v>0.003101363750159198</v>
       </c>
       <c r="T2">
-        <v>0.002990789828706947</v>
+        <v>0.003101363750159198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.172848</v>
+        <v>0.2694113333333333</v>
       </c>
       <c r="H3">
-        <v>0.518544</v>
+        <v>0.808234</v>
       </c>
       <c r="I3">
-        <v>0.04011888417844697</v>
+        <v>0.03395575510082675</v>
       </c>
       <c r="J3">
-        <v>0.04011888417844696</v>
+        <v>0.03395575510082675</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N3">
         <v>108.424221</v>
       </c>
       <c r="O3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P3">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q3">
-        <v>6.246969917136</v>
+        <v>9.736904648412668</v>
       </c>
       <c r="R3">
-        <v>56.222729254224</v>
+        <v>87.63214183571401</v>
       </c>
       <c r="S3">
-        <v>0.01231452192542963</v>
+        <v>0.01035769938153593</v>
       </c>
       <c r="T3">
-        <v>0.01231452192542963</v>
+        <v>0.01035769938153593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.172848</v>
+        <v>0.2694113333333333</v>
       </c>
       <c r="H4">
-        <v>0.518544</v>
+        <v>0.808234</v>
       </c>
       <c r="I4">
-        <v>0.04011888417844697</v>
+        <v>0.03395575510082675</v>
       </c>
       <c r="J4">
-        <v>0.04011888417844696</v>
+        <v>0.03395575510082675</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N4">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P4">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q4">
-        <v>3.153427273568</v>
+        <v>7.112748727379555</v>
       </c>
       <c r="R4">
-        <v>28.380845462112</v>
+        <v>64.014738546416</v>
       </c>
       <c r="S4">
-        <v>0.006216285625784535</v>
+        <v>0.007566235446971312</v>
       </c>
       <c r="T4">
-        <v>0.006216285625784533</v>
+        <v>0.007566235446971313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.172848</v>
+        <v>0.2694113333333333</v>
       </c>
       <c r="H5">
-        <v>0.518544</v>
+        <v>0.808234</v>
       </c>
       <c r="I5">
-        <v>0.04011888417844697</v>
+        <v>0.03395575510082675</v>
       </c>
       <c r="J5">
-        <v>0.04011888417844696</v>
+        <v>0.03395575510082675</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N5">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P5">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q5">
-        <v>9.434121103056</v>
+        <v>12.15546209432955</v>
       </c>
       <c r="R5">
-        <v>84.907089927504</v>
+        <v>109.399158848966</v>
       </c>
       <c r="S5">
-        <v>0.01859728679852585</v>
+        <v>0.01293045652216031</v>
       </c>
       <c r="T5">
-        <v>0.01859728679852585</v>
+        <v>0.01293045652216031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>7.310012</v>
       </c>
       <c r="I6">
-        <v>0.5655634329411919</v>
+        <v>0.3071102889214073</v>
       </c>
       <c r="J6">
-        <v>0.5655634329411919</v>
+        <v>0.3071102889214073</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N6">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P6">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q6">
-        <v>21.38800267131777</v>
+        <v>26.36885641225289</v>
       </c>
       <c r="R6">
-        <v>192.49202404186</v>
+        <v>237.319707710276</v>
       </c>
       <c r="S6">
-        <v>0.04216172501721305</v>
+        <v>0.02805005262093494</v>
       </c>
       <c r="T6">
-        <v>0.04216172501721305</v>
+        <v>0.02805005262093494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>7.310012</v>
       </c>
       <c r="I7">
-        <v>0.5655634329411919</v>
+        <v>0.3071102889214073</v>
       </c>
       <c r="J7">
-        <v>0.5655634329411919</v>
+        <v>0.3071102889214073</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N7">
         <v>108.424221</v>
       </c>
       <c r="O7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P7">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q7">
-        <v>88.06470628896133</v>
+        <v>88.06470628896135</v>
       </c>
       <c r="R7">
         <v>792.582356600652</v>
       </c>
       <c r="S7">
-        <v>0.1736001246743838</v>
+        <v>0.09367943785020204</v>
       </c>
       <c r="T7">
-        <v>0.1736001246743838</v>
+        <v>0.09367943785020204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>7.310012</v>
       </c>
       <c r="I8">
-        <v>0.5655634329411919</v>
+        <v>0.3071102889214073</v>
       </c>
       <c r="J8">
-        <v>0.5655634329411919</v>
+        <v>0.3071102889214073</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N8">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P8">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q8">
-        <v>44.45445557350844</v>
+        <v>64.33072420874311</v>
       </c>
       <c r="R8">
-        <v>400.090100161576</v>
+        <v>578.9765178786879</v>
       </c>
       <c r="S8">
-        <v>0.08763214408017922</v>
+        <v>0.06843225094735639</v>
       </c>
       <c r="T8">
-        <v>0.08763214408017922</v>
+        <v>0.0684322509473564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>7.310012</v>
       </c>
       <c r="I9">
-        <v>0.5655634329411919</v>
+        <v>0.3071102889214073</v>
       </c>
       <c r="J9">
-        <v>0.5655634329411919</v>
+        <v>0.3071102889214073</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.580447</v>
+        <v>45.11859966666666</v>
       </c>
       <c r="N9">
-        <v>163.741341</v>
+        <v>135.355799</v>
       </c>
       <c r="O9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="P9">
-        <v>0.4635544377507104</v>
+        <v>0.3808030916634065</v>
       </c>
       <c r="Q9">
-        <v>132.9945741784547</v>
+        <v>109.9391683288431</v>
       </c>
       <c r="R9">
-        <v>1196.951167606092</v>
+        <v>989.4525149595879</v>
       </c>
       <c r="S9">
-        <v>0.2621694391694158</v>
+        <v>0.1169485475029139</v>
       </c>
       <c r="T9">
-        <v>0.2621694391694158</v>
+        <v>0.1169485475029139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.698876333333333</v>
+        <v>5.033614</v>
       </c>
       <c r="H10">
-        <v>5.096629</v>
+        <v>15.100842</v>
       </c>
       <c r="I10">
-        <v>0.3943176828803611</v>
+        <v>0.6344208394701024</v>
       </c>
       <c r="J10">
-        <v>0.3943176828803611</v>
+        <v>0.6344208394701024</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.777551666666666</v>
+        <v>10.82167433333333</v>
       </c>
       <c r="N10">
-        <v>26.332655</v>
+        <v>32.465023</v>
       </c>
       <c r="O10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="P10">
-        <v>0.07454818073713243</v>
+        <v>0.09133543757015983</v>
       </c>
       <c r="Q10">
-        <v>14.91197479111056</v>
+        <v>54.47213142770734</v>
       </c>
       <c r="R10">
-        <v>134.207773119995</v>
+        <v>490.249182849366</v>
       </c>
       <c r="S10">
-        <v>0.02939566589121243</v>
+        <v>0.05794510497662993</v>
       </c>
       <c r="T10">
-        <v>0.02939566589121243</v>
+        <v>0.05794510497662993</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.698876333333333</v>
+        <v>5.033614</v>
       </c>
       <c r="H11">
-        <v>5.096629</v>
+        <v>15.100842</v>
       </c>
       <c r="I11">
-        <v>0.3943176828803611</v>
+        <v>0.6344208394701024</v>
       </c>
       <c r="J11">
-        <v>0.3943176828803611</v>
+        <v>0.6344208394701024</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.141407</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N11">
         <v>108.424221</v>
       </c>
       <c r="O11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="P11">
-        <v>0.306950758417288</v>
+        <v>0.3050351656377608</v>
       </c>
       <c r="Q11">
-        <v>61.39978100566767</v>
+        <v>181.921892254898</v>
       </c>
       <c r="R11">
-        <v>552.598029051009</v>
+        <v>1637.297030294082</v>
       </c>
       <c r="S11">
-        <v>0.1210361118174745</v>
+        <v>0.1935206658518099</v>
       </c>
       <c r="T11">
-        <v>0.1210361118174745</v>
+        <v>0.1935206658518099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.698876333333333</v>
+        <v>5.033614</v>
       </c>
       <c r="H12">
-        <v>5.096629</v>
+        <v>15.100842</v>
       </c>
       <c r="I12">
-        <v>0.3943176828803611</v>
+        <v>0.6344208394701024</v>
       </c>
       <c r="J12">
-        <v>0.3943176828803611</v>
+        <v>0.6344208394701024</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.24393266666667</v>
+        <v>26.40107466666666</v>
       </c>
       <c r="N12">
-        <v>54.731798</v>
+        <v>79.20322399999999</v>
       </c>
       <c r="O12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="P12">
-        <v>0.1549466230948692</v>
+        <v>0.2228263051286729</v>
       </c>
       <c r="Q12">
-        <v>30.99418543432689</v>
+        <v>132.8928190571787</v>
       </c>
       <c r="R12">
-        <v>278.947668908942</v>
+        <v>1196.035371514608</v>
       </c>
       <c r="S12">
-        <v>0.06109819338890549</v>
+        <v>0.1413656515557538</v>
       </c>
       <c r="T12">
-        <v>0.06109819338890547</v>
+        <v>0.1413656515557538</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.033614</v>
+      </c>
+      <c r="H13">
+        <v>15.100842</v>
+      </c>
+      <c r="I13">
+        <v>0.6344208394701024</v>
+      </c>
+      <c r="J13">
+        <v>0.6344208394701024</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>45.11859966666666</v>
+      </c>
+      <c r="N13">
+        <v>135.355799</v>
+      </c>
+      <c r="O13">
+        <v>0.3808030916634065</v>
+      </c>
+      <c r="P13">
+        <v>0.3808030916634065</v>
+      </c>
+      <c r="Q13">
+        <v>227.1096149425287</v>
+      </c>
+      <c r="R13">
+        <v>2043.986534482758</v>
+      </c>
+      <c r="S13">
+        <v>0.2415894170859087</v>
+      </c>
+      <c r="T13">
+        <v>0.2415894170859087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.698876333333333</v>
-      </c>
-      <c r="H13">
-        <v>5.096629</v>
-      </c>
-      <c r="I13">
-        <v>0.3943176828803611</v>
-      </c>
-      <c r="J13">
-        <v>0.3943176828803611</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>54.580447</v>
-      </c>
-      <c r="N13">
-        <v>163.741341</v>
-      </c>
-      <c r="O13">
-        <v>0.4635544377507104</v>
-      </c>
-      <c r="P13">
-        <v>0.4635544377507104</v>
-      </c>
-      <c r="Q13">
-        <v>92.72542967105434</v>
-      </c>
-      <c r="R13">
-        <v>834.528867039489</v>
-      </c>
-      <c r="S13">
-        <v>0.1827877117827687</v>
-      </c>
-      <c r="T13">
-        <v>0.1827877117827687</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1944916666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.583475</v>
+      </c>
+      <c r="I14">
+        <v>0.02451311650766348</v>
+      </c>
+      <c r="J14">
+        <v>0.02451311650766348</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.82167433333333</v>
+      </c>
+      <c r="N14">
+        <v>32.465023</v>
+      </c>
+      <c r="O14">
+        <v>0.09133543757015983</v>
+      </c>
+      <c r="P14">
+        <v>0.09133543757015983</v>
+      </c>
+      <c r="Q14">
+        <v>2.104725477213889</v>
+      </c>
+      <c r="R14">
+        <v>18.942529294925</v>
+      </c>
+      <c r="S14">
+        <v>0.002238916222435752</v>
+      </c>
+      <c r="T14">
+        <v>0.002238916222435752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1944916666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.583475</v>
+      </c>
+      <c r="I15">
+        <v>0.02451311650766348</v>
+      </c>
+      <c r="J15">
+        <v>0.02451311650766348</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>36.14140700000001</v>
+      </c>
+      <c r="N15">
+        <v>108.424221</v>
+      </c>
+      <c r="O15">
+        <v>0.3050351656377608</v>
+      </c>
+      <c r="P15">
+        <v>0.3050351656377608</v>
+      </c>
+      <c r="Q15">
+        <v>7.029202483108334</v>
+      </c>
+      <c r="R15">
+        <v>63.262822347975</v>
+      </c>
+      <c r="S15">
+        <v>0.007477362554212857</v>
+      </c>
+      <c r="T15">
+        <v>0.007477362554212858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1944916666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.583475</v>
+      </c>
+      <c r="I16">
+        <v>0.02451311650766348</v>
+      </c>
+      <c r="J16">
+        <v>0.02451311650766348</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.40107466666666</v>
+      </c>
+      <c r="N16">
+        <v>79.20322399999999</v>
+      </c>
+      <c r="O16">
+        <v>0.2228263051286729</v>
+      </c>
+      <c r="P16">
+        <v>0.2228263051286729</v>
+      </c>
+      <c r="Q16">
+        <v>5.13478901371111</v>
+      </c>
+      <c r="R16">
+        <v>46.21310112339999</v>
+      </c>
+      <c r="S16">
+        <v>0.00546216717859133</v>
+      </c>
+      <c r="T16">
+        <v>0.005462167178591332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1944916666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.583475</v>
+      </c>
+      <c r="I17">
+        <v>0.02451311650766348</v>
+      </c>
+      <c r="J17">
+        <v>0.02451311650766348</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>45.11859966666666</v>
+      </c>
+      <c r="N17">
+        <v>135.355799</v>
+      </c>
+      <c r="O17">
+        <v>0.3808030916634065</v>
+      </c>
+      <c r="P17">
+        <v>0.3808030916634065</v>
+      </c>
+      <c r="Q17">
+        <v>8.77519164683611</v>
+      </c>
+      <c r="R17">
+        <v>78.976724821525</v>
+      </c>
+      <c r="S17">
+        <v>0.009334670552423537</v>
+      </c>
+      <c r="T17">
+        <v>0.009334670552423541</v>
       </c>
     </row>
   </sheetData>
